--- a/docs/6u1/doc/_downloads/nablarch6u1-releasenote.xlsx
+++ b/docs/6u1/doc/_downloads/nablarch6u1-releasenote.xlsx
@@ -4,54 +4,19 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="675" documentId="13_ncr:1_{3EB2923E-E21F-42AC-93B1-D73C962B9E45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3C16FC3D-7537-44B0-B118-688AC1B87998}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32548D21-9406-4AE6-A7A3-F6AFCFA55BAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="678" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="3510" windowWidth="28800" windowHeight="10530" tabRatio="678" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="分類" sheetId="1" state="hidden" r:id="rId1"/>
-    <sheet name="6u1" sheetId="2" r:id="rId2"/>
-    <sheet name="バージョンアップ手順" sheetId="7" r:id="rId3"/>
-    <sheet name="件数取得SQLの拡張ポイント追加" sheetId="11" r:id="rId4"/>
+    <sheet name="6u1" sheetId="2" r:id="rId1"/>
+    <sheet name="バージョンアップ手順" sheetId="7" r:id="rId2"/>
+    <sheet name="件数取得SQLの拡張ポイント追加" sheetId="11" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'6u1'!$A$5:$N$5</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'6u1'!$A$1:$N$30</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">バージョンアップ手順!$A$1:$C$9</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="1">'6u1'!$4:$5</definedName>
-    <definedName name="Z_1CBAE259_1229_4D5F_B6AB_B1E571AC50CF_.wvu.FilterData" localSheetId="1" hidden="1">'6u1'!$A$6:$N$22</definedName>
-    <definedName name="Z_1CBAE259_1229_4D5F_B6AB_B1E571AC50CF_.wvu.PrintArea" localSheetId="1" hidden="1">'6u1'!$A$1:$N$22</definedName>
-    <definedName name="Z_1CBAE259_1229_4D5F_B6AB_B1E571AC50CF_.wvu.PrintTitles" localSheetId="1" hidden="1">'6u1'!#REF!</definedName>
-    <definedName name="Z_1CF83959_4781_4101_B45D_D5CA949F0DDD_.wvu.Cols" localSheetId="1" hidden="1">'6u1'!#REF!</definedName>
-    <definedName name="Z_1CF83959_4781_4101_B45D_D5CA949F0DDD_.wvu.PrintArea" localSheetId="1" hidden="1">'6u1'!$A$1:$M$22</definedName>
-    <definedName name="Z_1CF83959_4781_4101_B45D_D5CA949F0DDD_.wvu.PrintTitles" localSheetId="1" hidden="1">'6u1'!#REF!</definedName>
-    <definedName name="Z_24AE1C94_1117_4587_89A5_5409FBA350B6_.wvu.Cols" localSheetId="1" hidden="1">'6u1'!#REF!</definedName>
-    <definedName name="Z_24AE1C94_1117_4587_89A5_5409FBA350B6_.wvu.PrintArea" localSheetId="1" hidden="1">'6u1'!$C$6:$M$22</definedName>
-    <definedName name="Z_24AE1C94_1117_4587_89A5_5409FBA350B6_.wvu.Rows" localSheetId="1" hidden="1">'6u1'!#REF!</definedName>
-    <definedName name="Z_2B633146_467C_4617_ADD5_FD9A1AD5DEBA_.wvu.FilterData" localSheetId="1" hidden="1">'6u1'!$A$6:$N$22</definedName>
-    <definedName name="Z_2B633146_467C_4617_ADD5_FD9A1AD5DEBA_.wvu.PrintArea" localSheetId="1" hidden="1">'6u1'!$A$1:$N$22</definedName>
-    <definedName name="Z_2B633146_467C_4617_ADD5_FD9A1AD5DEBA_.wvu.PrintTitles" localSheetId="1" hidden="1">'6u1'!#REF!</definedName>
-    <definedName name="Z_40B3BD4E_A90D_4626_81B6_C0483900AF4D_.wvu.FilterData" localSheetId="1" hidden="1">'6u1'!$E$1:$E$22</definedName>
-    <definedName name="Z_4655032F_EDA3_424D_B394_37A8E68C4904_.wvu.FilterData" localSheetId="1" hidden="1">'6u1'!$A$6:$N$22</definedName>
-    <definedName name="Z_4D2933E2_6487_444C_A6EE_CA2B07EBFF56_.wvu.FilterData" localSheetId="1" hidden="1">'6u1'!$E$1:$E$22</definedName>
-    <definedName name="Z_4FDD670D_9AB4_47DD_9C5F_36375E23E10E_.wvu.FilterData" localSheetId="1" hidden="1">'6u1'!$A$6:$N$22</definedName>
-    <definedName name="Z_4FDD670D_9AB4_47DD_9C5F_36375E23E10E_.wvu.PrintArea" localSheetId="1" hidden="1">'6u1'!$A$1:$N$22</definedName>
-    <definedName name="Z_4FDD670D_9AB4_47DD_9C5F_36375E23E10E_.wvu.PrintTitles" localSheetId="1" hidden="1">'6u1'!#REF!</definedName>
-    <definedName name="Z_70553CE3_733A_4433_9EF9_07365707E65C_.wvu.FilterData" localSheetId="1" hidden="1">'6u1'!$A$6:$N$22</definedName>
-    <definedName name="Z_75534C82_75DB_44B7_B1F4_76A899C57CD8_.wvu.FilterData" localSheetId="1" hidden="1">'6u1'!$A$6:$N$22</definedName>
-    <definedName name="Z_88EDDA8D_68B8_4E64_A52A_39C4E90703A2_.wvu.FilterData" localSheetId="1" hidden="1">'6u1'!$E$1:$E$22</definedName>
-    <definedName name="Z_992E9273_D9A1_4611_8838_21D3D4051D5D_.wvu.FilterData" localSheetId="1" hidden="1">'6u1'!$E$1:$E$22</definedName>
-    <definedName name="Z_992E9273_D9A1_4611_8838_21D3D4051D5D_.wvu.PrintArea" localSheetId="1" hidden="1">'6u1'!$A$1:$N$22</definedName>
-    <definedName name="Z_992E9273_D9A1_4611_8838_21D3D4051D5D_.wvu.PrintTitles" localSheetId="1" hidden="1">'6u1'!#REF!</definedName>
-    <definedName name="Z_9A22F025_86BB_4FF2_93A1_C23747445003_.wvu.FilterData" localSheetId="1" hidden="1">'6u1'!$A$6:$N$22</definedName>
-    <definedName name="Z_B578103C_D023_4A55_BFED_D8473FB33B61_.wvu.Cols" localSheetId="1" hidden="1">'6u1'!#REF!</definedName>
-    <definedName name="Z_B578103C_D023_4A55_BFED_D8473FB33B61_.wvu.PrintArea" localSheetId="1" hidden="1">'6u1'!$C$6:$M$22</definedName>
-    <definedName name="Z_B578103C_D023_4A55_BFED_D8473FB33B61_.wvu.Rows" localSheetId="1" hidden="1">'6u1'!#REF!</definedName>
-    <definedName name="Z_B98E9A70_C592_47CF_A3E9_FBB4A91609B9_.wvu.FilterData" localSheetId="1" hidden="1">'6u1'!$A$6:$N$22</definedName>
-    <definedName name="Z_CB63417C_4A99_4348_B0FA_FE9F3E662D2A_.wvu.FilterData" localSheetId="1" hidden="1">'6u1'!$A$6:$N$22</definedName>
-    <definedName name="Z_EA675E32_024D_4164_ACA4_4EB3E1B601BC_.wvu.FilterData" localSheetId="1" hidden="1">'6u1'!$A$6:$N$22</definedName>
-    <definedName name="Z_EF0F843B_318F_4282_AA07_302A6B0BD46D_.wvu.FilterData" localSheetId="1" hidden="1">'6u1'!$A$6:$N$22</definedName>
-    <definedName name="機能分類">分類!$B$4:$B$71</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'6u1'!$A$1:$N$30</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">バージョンアップ手順!$A$1:$C$9</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'6u1'!$4:$5</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -74,241 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="229">
-  <si>
-    <t>機能分類</t>
-    <rPh sb="0" eb="2">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ブンルイ</t>
-    </rPh>
-    <phoneticPr fontId="12"/>
-  </si>
-  <si>
-    <t>ログ出力</t>
-  </si>
-  <si>
-    <t>リポジトリ</t>
-  </si>
-  <si>
-    <t>トランザクション管理機能</t>
-  </si>
-  <si>
-    <t>データベースアクセス(検索、更新、登録、削除)機能</t>
-  </si>
-  <si>
-    <t>静的データのキャッシュ</t>
-  </si>
-  <si>
-    <t>日付の管理機能</t>
-  </si>
-  <si>
-    <t>メッセージ</t>
-  </si>
-  <si>
-    <t>バリデーションとEntityの生成</t>
-  </si>
-  <si>
-    <t>汎用データフォーマット機能</t>
-  </si>
-  <si>
-    <t>同一スレッド内でのデータ共有(スレッドコンテキスト)</t>
-  </si>
-  <si>
-    <t>FWユーティリティ</t>
-  </si>
-  <si>
-    <t>FW標準ハンドラ</t>
-  </si>
-  <si>
-    <t>共通アーキテクチャ</t>
-  </si>
-  <si>
-    <t>データリーダ</t>
-  </si>
-  <si>
-    <t>国際化機能</t>
-  </si>
-  <si>
-    <t>メッセージング実行制御基盤</t>
-  </si>
-  <si>
-    <t>画面オンライン実行制御基盤</t>
-  </si>
-  <si>
-    <t>バッチ実行制御基盤</t>
-  </si>
-  <si>
-    <t>ファイルダウンロード</t>
-  </si>
-  <si>
-    <t>ファイルアップロード</t>
-  </si>
-  <si>
-    <t>開閉局</t>
-  </si>
-  <si>
-    <t>コード管理</t>
-  </si>
-  <si>
-    <t>日付ユーティリティ</t>
-  </si>
-  <si>
-    <t>暗号化機能</t>
-  </si>
-  <si>
-    <t>排他制御機能</t>
-  </si>
-  <si>
-    <t>採番機能</t>
-  </si>
-  <si>
-    <t>認可</t>
-  </si>
-  <si>
-    <t>画面用排他制御機能</t>
-  </si>
-  <si>
-    <t>カスタムタグ</t>
-  </si>
-  <si>
-    <t>共通コンポーネントで共通使用するユーティリティ</t>
-  </si>
-  <si>
-    <t>画面用共通機能</t>
-  </si>
-  <si>
-    <t>共通ハンドラ</t>
-  </si>
-  <si>
-    <t>画面用共通ハンドラ</t>
-  </si>
-  <si>
-    <t>I/O関連共通機能</t>
-  </si>
-  <si>
-    <t>メール</t>
-  </si>
-  <si>
-    <t>ワークフロー</t>
-  </si>
-  <si>
-    <t>その他コード不備</t>
-  </si>
-  <si>
-    <t>自動テストフレームワーク</t>
-  </si>
-  <si>
-    <t>HTML構文チェックツール</t>
-  </si>
-  <si>
-    <t>JSP静的解析ツール</t>
-  </si>
-  <si>
-    <t>リクエスト単体テストデータ作成ツール</t>
-  </si>
-  <si>
-    <t>Java静的解析ツール</t>
-  </si>
-  <si>
-    <t>設定ファイル</t>
-  </si>
-  <si>
-    <t>開発ガイド</t>
-  </si>
-  <si>
-    <t>環境構築ガイド</t>
-  </si>
-  <si>
-    <t>チュートリアル用コンテンツ</t>
-  </si>
-  <si>
-    <t>設計標準</t>
-  </si>
-  <si>
-    <t>ドキュメント規約</t>
-  </si>
-  <si>
-    <t>設計書フォーマット</t>
-  </si>
-  <si>
-    <t>コーディング規約</t>
-  </si>
-  <si>
-    <t>業務機能サンプル</t>
-  </si>
-  <si>
-    <t>拡張モジュールサンプル</t>
-  </si>
-  <si>
-    <t>NablarchToolbox</t>
-  </si>
-  <si>
-    <t>画面開発ツール</t>
-  </si>
-  <si>
-    <t>業務画面テンプレート</t>
-  </si>
-  <si>
-    <t>UI部品ウィジェット</t>
-  </si>
-  <si>
-    <t>JavaScript UI部品</t>
-  </si>
-  <si>
-    <t>CSSフレームワーク</t>
-  </si>
-  <si>
-    <t>設計書表示機能</t>
-    <rPh sb="3" eb="5">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>キノウ</t>
-    </rPh>
-    <phoneticPr fontId="12"/>
-  </si>
-  <si>
-    <t>その他</t>
-  </si>
-  <si>
-    <t>工程・WBS・成果物定義</t>
-  </si>
-  <si>
-    <t>ツール統合</t>
-  </si>
-  <si>
-    <t>各種標準追加・見直し</t>
-  </si>
-  <si>
-    <t>CTS（変更管理）</t>
-  </si>
-  <si>
-    <t>ADD（ダッシュボード）</t>
-  </si>
-  <si>
-    <t>Capsule-T</t>
-  </si>
-  <si>
-    <t>画面用Form自動生成機能</t>
-    <rPh sb="0" eb="2">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ヨウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ジドウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>セイセイ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>キノウ</t>
-    </rPh>
-    <phoneticPr fontId="12"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="161">
   <si>
     <t>■Nablarch 6u1 リリースノート</t>
     <phoneticPr fontId="12"/>
@@ -2488,7 +2219,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2498,9 +2229,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -2615,9 +2343,6 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="37" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2699,6 +2424,36 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2710,36 +2465,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="39">
@@ -3665,369 +3390,6 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr codeName="Sheet2"/>
-  <dimension ref="B2:B71"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B4" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B5" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B6" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B7" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B8" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B9" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B10" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B11" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B12" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B13" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B14" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B15" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B16" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B17" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B18" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B19" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B20" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B21" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B22" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B23" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B24" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B25" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B26" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B27" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B28" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B29" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B30" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B31" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B32" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B33" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B34" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B35" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B36" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B37" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B38" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B39" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B40" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B41" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B42" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B43" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B44" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B45" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B46" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B47" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B48" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B49" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B50" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B51" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B52" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B53" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B54" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B55" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B56" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B57" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B58" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B59" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B60" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B61" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B62" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B63" s="42" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B64" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B65" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B66" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B67" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B68" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B69" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B70" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B71" s="42" t="s">
-        <v>67</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="12"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
@@ -4042,9 +3404,9 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.125" style="28" customWidth="1"/>
+    <col min="2" max="2" width="9.125" style="27" customWidth="1"/>
     <col min="3" max="3" width="4.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.125" style="28" customWidth="1"/>
+    <col min="4" max="4" width="14.125" style="27" customWidth="1"/>
     <col min="5" max="5" width="5.75" style="1" customWidth="1"/>
     <col min="6" max="6" width="17.875" style="1" customWidth="1"/>
     <col min="7" max="7" width="37.125" style="1" customWidth="1"/>
@@ -4057,925 +3419,925 @@
     <col min="16" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:125" s="5" customFormat="1" ht="19.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B1" s="25"/>
-      <c r="D1" s="25"/>
-    </row>
-    <row r="2" spans="1:125" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-    </row>
-    <row r="3" spans="1:125" s="7" customFormat="1" ht="110.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="27"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="40"/>
-      <c r="AO3" s="8"/>
-      <c r="DU3" s="9"/>
+    <row r="1" spans="1:125" s="4" customFormat="1" ht="19.5" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="D1" s="24"/>
+    </row>
+    <row r="2" spans="1:125" s="5" customFormat="1" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="25"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+    </row>
+    <row r="3" spans="1:125" s="6" customFormat="1" ht="110.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="26"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
+      <c r="AO3" s="7"/>
+      <c r="DU3" s="8"/>
     </row>
     <row r="4" spans="1:125" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="74" t="s">
-        <v>70</v>
+        <v>2</v>
       </c>
       <c r="B4" s="75"/>
-      <c r="C4" s="78" t="s">
-        <v>71</v>
-      </c>
-      <c r="D4" s="78" t="s">
-        <v>72</v>
-      </c>
-      <c r="E4" s="78" t="s">
-        <v>73</v>
-      </c>
-      <c r="F4" s="78" t="s">
-        <v>74</v>
-      </c>
-      <c r="G4" s="78" t="s">
-        <v>75</v>
-      </c>
-      <c r="H4" s="78" t="s">
-        <v>76</v>
-      </c>
-      <c r="I4" s="82" t="s">
-        <v>77</v>
-      </c>
-      <c r="J4" s="83"/>
-      <c r="K4" s="78" t="s">
-        <v>78</v>
-      </c>
-      <c r="L4" s="78" t="s">
-        <v>79</v>
-      </c>
-      <c r="M4" s="80" t="s">
-        <v>80</v>
-      </c>
-      <c r="N4" s="78" t="s">
-        <v>81</v>
+      <c r="C4" s="68" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="68" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="68" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="68" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="68" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="68" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="72" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" s="73"/>
+      <c r="K4" s="68" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="M4" s="70" t="s">
+        <v>12</v>
+      </c>
+      <c r="N4" s="68" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:125" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="76"/>
       <c r="B5" s="77"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="79"/>
-      <c r="I5" s="41" t="s">
-        <v>82</v>
-      </c>
-      <c r="J5" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="K5" s="79"/>
-      <c r="L5" s="79"/>
-      <c r="M5" s="81"/>
-      <c r="N5" s="79"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="69"/>
+      <c r="I5" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" s="69"/>
+      <c r="L5" s="69"/>
+      <c r="M5" s="71"/>
+      <c r="N5" s="69"/>
       <c r="O5" s="1"/>
     </row>
     <row r="6" spans="1:125" ht="21" x14ac:dyDescent="0.15">
-      <c r="A6" s="34" t="s">
-        <v>84</v>
-      </c>
-      <c r="B6" s="29"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="20"/>
-    </row>
-    <row r="7" spans="1:125" s="10" customFormat="1" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="34"/>
-      <c r="B7" s="31" t="s">
-        <v>85</v>
-      </c>
-      <c r="C7" s="31">
+      <c r="A6" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="28"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="19"/>
+    </row>
+    <row r="7" spans="1:125" s="9" customFormat="1" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="33"/>
+      <c r="B7" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="30">
         <v>1</v>
       </c>
-      <c r="D7" s="31" t="s">
-        <v>86</v>
-      </c>
-      <c r="E7" s="31" t="s">
-        <v>87</v>
-      </c>
-      <c r="F7" s="31" t="s">
-        <v>88</v>
-      </c>
-      <c r="G7" s="31" t="s">
-        <v>204</v>
-      </c>
-      <c r="H7" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="I7" s="31" t="s">
-        <v>90</v>
-      </c>
-      <c r="J7" s="31" t="s">
-        <v>90</v>
-      </c>
-      <c r="K7" s="31" t="s">
-        <v>91</v>
-      </c>
-      <c r="L7" s="31" t="s">
-        <v>92</v>
-      </c>
-      <c r="M7" s="44" t="s">
-        <v>93</v>
-      </c>
-      <c r="N7" s="31" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="8" spans="1:125" s="10" customFormat="1" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="12"/>
-      <c r="B8" s="30"/>
-      <c r="C8" s="22">
+      <c r="D7" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="H7" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="K7" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="L7" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="M7" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="N7" s="30" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:125" s="9" customFormat="1" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="11"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="21">
         <f>C7+1</f>
         <v>2</v>
       </c>
-      <c r="D8" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="E8" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="F8" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="G8" s="22" t="s">
-        <v>205</v>
-      </c>
-      <c r="H8" s="45" t="s">
-        <v>97</v>
-      </c>
-      <c r="I8" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="J8" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="K8" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="L8" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="M8" s="57" t="s">
-        <v>99</v>
-      </c>
-      <c r="N8" s="22" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:125" s="10" customFormat="1" ht="48" x14ac:dyDescent="0.15">
-      <c r="A9" s="12"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="22">
+      <c r="D8" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="H8" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="J8" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="K8" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="L8" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="M8" s="55" t="s">
+        <v>31</v>
+      </c>
+      <c r="N8" s="21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:125" s="9" customFormat="1" ht="48" x14ac:dyDescent="0.15">
+      <c r="A9" s="11"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="21">
         <f>C8+1</f>
         <v>3</v>
       </c>
-      <c r="D9" s="22" t="s">
-        <v>207</v>
-      </c>
-      <c r="E9" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="F9" s="22" t="s">
-        <v>208</v>
-      </c>
-      <c r="G9" s="22" t="s">
-        <v>206</v>
-      </c>
-      <c r="H9" s="45" t="s">
-        <v>101</v>
-      </c>
-      <c r="I9" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="J9" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="K9" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="L9" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="M9" s="57" t="s">
-        <v>102</v>
-      </c>
-      <c r="N9" s="22" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="10" spans="1:125" s="10" customFormat="1" ht="228" x14ac:dyDescent="0.15">
-      <c r="A10" s="12"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="22">
+      <c r="D9" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="G9" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="H9" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="I9" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="J9" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="L9" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="M9" s="55" t="s">
+        <v>34</v>
+      </c>
+      <c r="N9" s="21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:125" s="9" customFormat="1" ht="228" x14ac:dyDescent="0.15">
+      <c r="A10" s="11"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="21">
         <f>C9+1</f>
         <v>4</v>
       </c>
-      <c r="D10" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="E10" s="23" t="s">
-        <v>151</v>
-      </c>
-      <c r="F10" s="22" t="s">
+      <c r="D10" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="G10" s="67" t="s">
         <v>152</v>
       </c>
-      <c r="G10" s="69" t="s">
-        <v>220</v>
-      </c>
-      <c r="H10" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="I10" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="J10" s="22" t="s">
-        <v>153</v>
-      </c>
-      <c r="K10" s="22" t="s">
-        <v>154</v>
-      </c>
-      <c r="L10" s="22" t="s">
-        <v>155</v>
-      </c>
-      <c r="M10" s="57" t="s">
-        <v>107</v>
-      </c>
-      <c r="N10" s="31" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="11" spans="1:125" s="10" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="12"/>
-      <c r="B11" s="30"/>
-      <c r="C11" s="70">
+      <c r="H10" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="I10" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="J10" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="K10" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="L10" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="M10" s="55" t="s">
+        <v>39</v>
+      </c>
+      <c r="N10" s="30" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:125" s="9" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="11"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="78">
         <f>C10+1</f>
         <v>5</v>
       </c>
-      <c r="D11" s="70" t="s">
-        <v>95</v>
-      </c>
-      <c r="E11" s="70" t="s">
-        <v>157</v>
-      </c>
-      <c r="F11" s="70" t="s">
-        <v>209</v>
-      </c>
-      <c r="G11" s="70" t="s">
-        <v>210</v>
-      </c>
-      <c r="H11" s="70" t="s">
-        <v>183</v>
-      </c>
-      <c r="I11" s="70" t="s">
-        <v>92</v>
-      </c>
-      <c r="J11" s="70" t="s">
-        <v>92</v>
-      </c>
-      <c r="K11" s="70" t="s">
-        <v>158</v>
-      </c>
-      <c r="L11" s="70" t="s">
-        <v>211</v>
-      </c>
-      <c r="M11" s="57" t="s">
-        <v>180</v>
-      </c>
-      <c r="N11" s="70" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="12" spans="1:125" s="10" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="12"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="71"/>
-      <c r="D12" s="71"/>
-      <c r="E12" s="71"/>
-      <c r="F12" s="71"/>
-      <c r="G12" s="71"/>
-      <c r="H12" s="71"/>
-      <c r="I12" s="71"/>
-      <c r="J12" s="71"/>
-      <c r="K12" s="71"/>
-      <c r="L12" s="71"/>
-      <c r="M12" s="57" t="s">
-        <v>181</v>
-      </c>
-      <c r="N12" s="71"/>
-    </row>
-    <row r="13" spans="1:125" s="10" customFormat="1" ht="204" x14ac:dyDescent="0.15">
-      <c r="A13" s="12"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="22">
+      <c r="D11" s="78" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="78" t="s">
+        <v>89</v>
+      </c>
+      <c r="F11" s="78" t="s">
+        <v>141</v>
+      </c>
+      <c r="G11" s="78" t="s">
+        <v>142</v>
+      </c>
+      <c r="H11" s="78" t="s">
+        <v>115</v>
+      </c>
+      <c r="I11" s="78" t="s">
+        <v>24</v>
+      </c>
+      <c r="J11" s="78" t="s">
+        <v>24</v>
+      </c>
+      <c r="K11" s="78" t="s">
+        <v>90</v>
+      </c>
+      <c r="L11" s="78" t="s">
+        <v>143</v>
+      </c>
+      <c r="M11" s="55" t="s">
+        <v>112</v>
+      </c>
+      <c r="N11" s="78" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12" spans="1:125" s="9" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="11"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="79"/>
+      <c r="D12" s="79"/>
+      <c r="E12" s="79"/>
+      <c r="F12" s="79"/>
+      <c r="G12" s="79"/>
+      <c r="H12" s="79"/>
+      <c r="I12" s="79"/>
+      <c r="J12" s="79"/>
+      <c r="K12" s="79"/>
+      <c r="L12" s="79"/>
+      <c r="M12" s="55" t="s">
+        <v>113</v>
+      </c>
+      <c r="N12" s="79"/>
+    </row>
+    <row r="13" spans="1:125" s="9" customFormat="1" ht="204" x14ac:dyDescent="0.15">
+      <c r="A13" s="11"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="21">
         <f>C11+1</f>
         <v>6</v>
       </c>
-      <c r="D13" s="47" t="s">
-        <v>186</v>
-      </c>
-      <c r="E13" s="59" t="s">
+      <c r="D13" s="45" t="s">
+        <v>118</v>
+      </c>
+      <c r="E13" s="57" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="G13" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="H13" s="46" t="s">
+        <v>132</v>
+      </c>
+      <c r="I13" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="J13" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="K13" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="L13" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="M13" s="64" t="s">
+        <v>22</v>
+      </c>
+      <c r="N13" s="46" t="s">
         <v>121</v>
       </c>
-      <c r="F13" s="48" t="s">
-        <v>188</v>
-      </c>
-      <c r="G13" s="22" t="s">
-        <v>226</v>
-      </c>
-      <c r="H13" s="48" t="s">
-        <v>200</v>
-      </c>
-      <c r="I13" s="48" t="s">
-        <v>90</v>
-      </c>
-      <c r="J13" s="48" t="s">
-        <v>90</v>
-      </c>
-      <c r="K13" s="48" t="s">
-        <v>98</v>
-      </c>
-      <c r="L13" s="48" t="s">
-        <v>90</v>
-      </c>
-      <c r="M13" s="66" t="s">
-        <v>90</v>
-      </c>
-      <c r="N13" s="48" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="14" spans="1:125" s="10" customFormat="1" ht="144" x14ac:dyDescent="0.15">
-      <c r="A14" s="12"/>
-      <c r="B14" s="30"/>
-      <c r="C14" s="22">
+    </row>
+    <row r="14" spans="1:125" s="9" customFormat="1" ht="144" x14ac:dyDescent="0.15">
+      <c r="A14" s="11"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="21">
         <f>C13+1</f>
         <v>7</v>
       </c>
-      <c r="D14" s="47" t="s">
-        <v>187</v>
-      </c>
-      <c r="E14" s="59" t="s">
+      <c r="D14" s="45" t="s">
+        <v>119</v>
+      </c>
+      <c r="E14" s="57" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="G14" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="H14" s="46" t="s">
+        <v>133</v>
+      </c>
+      <c r="I14" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="J14" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="K14" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="L14" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="M14" s="55" t="s">
+        <v>123</v>
+      </c>
+      <c r="N14" s="46" t="s">
         <v>121</v>
       </c>
-      <c r="F14" s="48" t="s">
-        <v>190</v>
-      </c>
-      <c r="G14" s="22" t="s">
-        <v>225</v>
-      </c>
-      <c r="H14" s="48" t="s">
-        <v>201</v>
-      </c>
-      <c r="I14" s="48" t="s">
-        <v>90</v>
-      </c>
-      <c r="J14" s="48" t="s">
-        <v>90</v>
-      </c>
-      <c r="K14" s="48" t="s">
-        <v>98</v>
-      </c>
-      <c r="L14" s="48" t="s">
-        <v>90</v>
-      </c>
-      <c r="M14" s="57" t="s">
-        <v>191</v>
-      </c>
-      <c r="N14" s="48" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="15" spans="1:125" s="10" customFormat="1" ht="84" x14ac:dyDescent="0.15">
-      <c r="A15" s="12"/>
-      <c r="B15" s="33" t="s">
-        <v>108</v>
-      </c>
-      <c r="C15" s="22">
+    </row>
+    <row r="15" spans="1:125" s="9" customFormat="1" ht="84" x14ac:dyDescent="0.15">
+      <c r="A15" s="11"/>
+      <c r="B15" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="21">
         <f>C14+1</f>
         <v>8</v>
       </c>
-      <c r="D15" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="E15" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="F15" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="G15" s="22" t="s">
-        <v>212</v>
-      </c>
-      <c r="H15" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="I15" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="J15" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="K15" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="L15" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="M15" s="57" t="s">
-        <v>112</v>
-      </c>
-      <c r="N15" s="22" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="16" spans="1:125" s="10" customFormat="1" ht="60" x14ac:dyDescent="0.15">
-      <c r="A16" s="12"/>
-      <c r="B16" s="35"/>
-      <c r="C16" s="22">
+      <c r="D15" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="G15" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="H15" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="I15" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="J15" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="K15" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="L15" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="M15" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="N15" s="21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:125" s="9" customFormat="1" ht="60" x14ac:dyDescent="0.15">
+      <c r="A16" s="11"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="21">
         <f>C15+1</f>
         <v>9</v>
       </c>
-      <c r="D16" s="22" t="s">
-        <v>114</v>
-      </c>
-      <c r="E16" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="F16" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="G16" s="22" t="s">
-        <v>116</v>
-      </c>
-      <c r="H16" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="I16" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="J16" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="K16" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="L16" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="M16" s="57" t="s">
-        <v>117</v>
-      </c>
-      <c r="N16" s="22" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" s="10" customFormat="1" ht="204" x14ac:dyDescent="0.15">
-      <c r="A17" s="12"/>
-      <c r="B17" s="35"/>
-      <c r="C17" s="22">
+      <c r="D16" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="G16" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="H16" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="I16" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="J16" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="K16" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="L16" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="M16" s="55" t="s">
+        <v>49</v>
+      </c>
+      <c r="N16" s="21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" s="9" customFormat="1" ht="204" x14ac:dyDescent="0.15">
+      <c r="A17" s="11"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="21">
         <f>C16+1</f>
         <v>10</v>
       </c>
-      <c r="D17" s="22" t="s">
-        <v>221</v>
-      </c>
-      <c r="E17" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="F17" s="22" t="s">
-        <v>228</v>
-      </c>
-      <c r="G17" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="H17" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="I17" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="J17" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="K17" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="L17" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="M17" s="57" t="s">
-        <v>223</v>
-      </c>
-      <c r="N17" s="22" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" s="10" customFormat="1" ht="108" x14ac:dyDescent="0.15">
-      <c r="A18" s="12"/>
-      <c r="B18" s="33" t="s">
-        <v>119</v>
-      </c>
-      <c r="C18" s="22">
+      <c r="D17" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="E17" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="G17" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="H17" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="I17" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="J17" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="K17" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="L17" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="M17" s="55" t="s">
+        <v>155</v>
+      </c>
+      <c r="N17" s="21" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" s="9" customFormat="1" ht="108" x14ac:dyDescent="0.15">
+      <c r="A18" s="11"/>
+      <c r="B18" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="21">
         <f>C17+1</f>
         <v>11</v>
       </c>
-      <c r="D18" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="E18" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="F18" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="G18" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="H18" s="22" t="s">
-        <v>124</v>
-      </c>
-      <c r="I18" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="J18" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="K18" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="L18" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="M18" s="57" t="s">
-        <v>125</v>
-      </c>
-      <c r="N18" s="22" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.15">
-      <c r="A19" s="34" t="s">
-        <v>126</v>
-      </c>
-      <c r="B19" s="21"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="21"/>
-      <c r="N19" s="20"/>
-    </row>
-    <row r="20" spans="1:15" s="10" customFormat="1" ht="72" x14ac:dyDescent="0.15">
-      <c r="A20" s="12"/>
-      <c r="B20" s="72" t="s">
-        <v>85</v>
-      </c>
-      <c r="C20" s="22">
+      <c r="D18" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="F18" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G18" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="H18" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="I18" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="J18" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="K18" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="M18" s="55" t="s">
+        <v>57</v>
+      </c>
+      <c r="N18" s="21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.15">
+      <c r="A19" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" s="20"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="20"/>
+      <c r="N19" s="19"/>
+    </row>
+    <row r="20" spans="1:15" s="9" customFormat="1" ht="72" x14ac:dyDescent="0.15">
+      <c r="A20" s="11"/>
+      <c r="B20" s="80" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="21">
         <f>C18+1</f>
         <v>12</v>
       </c>
-      <c r="D20" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="E20" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="F20" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="G20" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="H20" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="I20" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="J20" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="K20" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="L20" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="M20" s="43" t="s">
-        <v>131</v>
-      </c>
-      <c r="N20" s="22" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" s="10" customFormat="1" ht="36" x14ac:dyDescent="0.15">
-      <c r="A21" s="12"/>
-      <c r="B21" s="73"/>
-      <c r="C21" s="22">
+      <c r="D20" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="E20" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="G20" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="H20" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="I20" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="J20" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="K20" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="L20" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="M20" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="N20" s="21" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" s="9" customFormat="1" ht="36" x14ac:dyDescent="0.15">
+      <c r="A21" s="11"/>
+      <c r="B21" s="81"/>
+      <c r="C21" s="21">
         <f>C20+1</f>
         <v>13</v>
       </c>
-      <c r="D21" s="22" t="s">
-        <v>133</v>
-      </c>
-      <c r="E21" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="F21" s="22" t="s">
-        <v>134</v>
-      </c>
-      <c r="G21" s="22" t="s">
-        <v>135</v>
-      </c>
-      <c r="H21" s="22" t="s">
-        <v>136</v>
-      </c>
-      <c r="I21" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="J21" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="K21" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="L21" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="M21" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="N21" s="22" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" s="10" customFormat="1" ht="84" x14ac:dyDescent="0.15">
-      <c r="A22" s="12"/>
-      <c r="B22" s="73"/>
-      <c r="C22" s="22">
+      <c r="D21" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="E21" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="F21" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="G21" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="H21" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="I21" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="J21" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="K21" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="L21" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="M21" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="N21" s="21" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" s="9" customFormat="1" ht="84" x14ac:dyDescent="0.15">
+      <c r="A22" s="11"/>
+      <c r="B22" s="81"/>
+      <c r="C22" s="21">
         <f t="shared" ref="C22:C23" si="0">C21+1</f>
         <v>14</v>
       </c>
-      <c r="D22" s="22" t="s">
-        <v>139</v>
-      </c>
-      <c r="E22" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="F22" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="G22" s="22" t="s">
-        <v>141</v>
-      </c>
-      <c r="H22" s="22" t="s">
-        <v>142</v>
-      </c>
-      <c r="I22" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="J22" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="K22" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="L22" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="M22" s="43" t="s">
-        <v>143</v>
-      </c>
-      <c r="N22" s="22" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" s="10" customFormat="1" ht="72" x14ac:dyDescent="0.15">
-      <c r="A23" s="46"/>
-      <c r="B23" s="58"/>
-      <c r="C23" s="22">
+      <c r="D22" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="E22" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="G22" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="H22" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="I22" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="J22" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="K22" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="L22" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="M22" s="41" t="s">
+        <v>75</v>
+      </c>
+      <c r="N22" s="21" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" s="9" customFormat="1" ht="72" x14ac:dyDescent="0.15">
+      <c r="A23" s="44"/>
+      <c r="B23" s="56"/>
+      <c r="C23" s="21">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="D23" s="22" t="s">
-        <v>213</v>
-      </c>
-      <c r="E23" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="F23" s="22" t="s">
-        <v>214</v>
-      </c>
-      <c r="G23" s="22" t="s">
-        <v>215</v>
-      </c>
-      <c r="H23" s="22" t="s">
-        <v>216</v>
-      </c>
-      <c r="I23" s="22" t="s">
+      <c r="D23" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="E23" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="F23" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="G23" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="H23" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="I23" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="J23" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="K23" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="J23" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="K23" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="L23" s="22" t="s">
-        <v>217</v>
-      </c>
-      <c r="M23" s="43" t="s">
-        <v>218</v>
-      </c>
-      <c r="N23" s="22" t="s">
-        <v>219</v>
-      </c>
-      <c r="O23" s="68"/>
-    </row>
-    <row r="24" spans="1:15" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.15">
-      <c r="A24" s="34" t="s">
-        <v>192</v>
-      </c>
-      <c r="B24" s="24"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="11"/>
-      <c r="M24" s="21"/>
-      <c r="N24" s="20"/>
-    </row>
-    <row r="25" spans="1:15" s="10" customFormat="1" ht="36" x14ac:dyDescent="0.15">
-      <c r="A25" s="12"/>
-      <c r="B25" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="C25" s="22">
+      <c r="L23" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="M23" s="41" t="s">
+        <v>150</v>
+      </c>
+      <c r="N23" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="O23" s="66"/>
+    </row>
+    <row r="24" spans="1:15" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.15">
+      <c r="A24" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="B24" s="23"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="20"/>
+      <c r="N24" s="19"/>
+    </row>
+    <row r="25" spans="1:15" s="9" customFormat="1" ht="36" x14ac:dyDescent="0.15">
+      <c r="A25" s="11"/>
+      <c r="B25" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="21">
         <f>C23+1</f>
         <v>16</v>
       </c>
-      <c r="D25" s="22" t="s">
-        <v>186</v>
-      </c>
-      <c r="E25" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="F25" s="22" t="s">
-        <v>193</v>
-      </c>
-      <c r="G25" s="22" t="s">
-        <v>197</v>
-      </c>
-      <c r="H25" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="I25" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="J25" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="K25" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="L25" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="M25" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="N25" s="22" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.15">
-      <c r="A26" s="34" t="s">
-        <v>195</v>
-      </c>
-      <c r="B26" s="60"/>
-      <c r="C26" s="61"/>
-      <c r="D26" s="62"/>
-      <c r="E26" s="62"/>
-      <c r="F26" s="62"/>
-      <c r="G26" s="62"/>
-      <c r="H26" s="63"/>
-      <c r="I26" s="63"/>
-      <c r="J26" s="63"/>
-      <c r="K26" s="62"/>
-      <c r="L26" s="62"/>
-      <c r="M26" s="62"/>
-      <c r="N26" s="62"/>
-    </row>
-    <row r="27" spans="1:15" s="10" customFormat="1" ht="108" x14ac:dyDescent="0.15">
-      <c r="A27" s="12"/>
-      <c r="B27" s="64" t="s">
-        <v>85</v>
-      </c>
-      <c r="C27" s="47">
+      <c r="D25" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="E25" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="F25" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="G25" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="H25" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="I25" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="J25" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="K25" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="L25" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="M25" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="N25" s="21" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.15">
+      <c r="A26" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="B26" s="58"/>
+      <c r="C26" s="59"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="60"/>
+      <c r="F26" s="60"/>
+      <c r="G26" s="60"/>
+      <c r="H26" s="61"/>
+      <c r="I26" s="61"/>
+      <c r="J26" s="61"/>
+      <c r="K26" s="60"/>
+      <c r="L26" s="60"/>
+      <c r="M26" s="60"/>
+      <c r="N26" s="60"/>
+    </row>
+    <row r="27" spans="1:15" s="9" customFormat="1" ht="108" x14ac:dyDescent="0.15">
+      <c r="A27" s="11"/>
+      <c r="B27" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" s="45">
         <f>C25+1</f>
         <v>17</v>
       </c>
-      <c r="D27" s="47" t="s">
-        <v>186</v>
-      </c>
-      <c r="E27" s="47" t="s">
-        <v>157</v>
-      </c>
-      <c r="F27" s="47" t="s">
-        <v>196</v>
-      </c>
-      <c r="G27" s="64" t="s">
-        <v>227</v>
-      </c>
-      <c r="H27" s="47" t="s">
-        <v>202</v>
-      </c>
-      <c r="I27" s="47" t="s">
-        <v>92</v>
-      </c>
-      <c r="J27" s="47" t="s">
-        <v>92</v>
-      </c>
-      <c r="K27" s="47" t="s">
-        <v>91</v>
-      </c>
-      <c r="L27" s="47" t="s">
-        <v>92</v>
-      </c>
-      <c r="M27" s="65" t="s">
-        <v>198</v>
-      </c>
-      <c r="N27" s="47" t="s">
-        <v>194</v>
+      <c r="D27" s="45" t="s">
+        <v>118</v>
+      </c>
+      <c r="E27" s="45" t="s">
+        <v>89</v>
+      </c>
+      <c r="F27" s="45" t="s">
+        <v>128</v>
+      </c>
+      <c r="G27" s="62" t="s">
+        <v>159</v>
+      </c>
+      <c r="H27" s="45" t="s">
+        <v>134</v>
+      </c>
+      <c r="I27" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="J27" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="K27" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="L27" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="M27" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="N27" s="45" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="84" x14ac:dyDescent="0.15">
-      <c r="A28" s="46"/>
-      <c r="B28" s="67"/>
-      <c r="C28" s="48"/>
-      <c r="D28" s="48"/>
-      <c r="E28" s="48"/>
-      <c r="F28" s="48"/>
-      <c r="G28" s="67"/>
-      <c r="H28" s="48"/>
-      <c r="I28" s="48"/>
-      <c r="J28" s="48"/>
-      <c r="K28" s="48"/>
-      <c r="L28" s="48"/>
-      <c r="M28" s="65" t="s">
-        <v>203</v>
-      </c>
-      <c r="N28" s="48"/>
+      <c r="A28" s="44"/>
+      <c r="B28" s="65"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="46"/>
+      <c r="F28" s="46"/>
+      <c r="G28" s="65"/>
+      <c r="H28" s="46"/>
+      <c r="I28" s="46"/>
+      <c r="J28" s="46"/>
+      <c r="K28" s="46"/>
+      <c r="L28" s="46"/>
+      <c r="M28" s="63" t="s">
+        <v>135</v>
+      </c>
+      <c r="N28" s="46"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B29" s="1"/>
@@ -4987,20 +4349,6 @@
     <sortCondition ref="E7:E9"/>
   </sortState>
   <mergeCells count="24">
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="A4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="C11:C12"/>
     <mergeCell ref="N11:N12"/>
     <mergeCell ref="L11:L12"/>
     <mergeCell ref="K11:K12"/>
@@ -5011,6 +4359,20 @@
     <mergeCell ref="G11:G12"/>
     <mergeCell ref="F11:F12"/>
     <mergeCell ref="E11:E12"/>
+    <mergeCell ref="A4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="I4:J4"/>
   </mergeCells>
   <phoneticPr fontId="12"/>
   <conditionalFormatting sqref="G19">
@@ -5074,9 +4436,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr>
+  <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:F9"/>
@@ -5087,94 +4449,94 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9" style="15"/>
-    <col min="2" max="2" width="3.375" style="15" customWidth="1"/>
-    <col min="3" max="3" width="89.875" style="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="15"/>
+    <col min="1" max="1" width="9" style="14"/>
+    <col min="2" max="2" width="3.375" style="14" customWidth="1"/>
+    <col min="3" max="3" width="89.875" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A1" s="14" t="s">
-        <v>145</v>
+      <c r="A1" s="13" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
+      <c r="A3" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" s="16"/>
-      <c r="B4" s="18" t="s">
-        <v>147</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
+      <c r="A4" s="15"/>
+      <c r="B4" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="16"/>
-      <c r="B5" s="17">
+      <c r="A5" s="15"/>
+      <c r="B5" s="16">
         <v>1</v>
       </c>
-      <c r="C5" s="32" t="s">
-        <v>149</v>
-      </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
+      <c r="C5" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="16"/>
-      <c r="B6" s="17">
+      <c r="A6" s="15"/>
+      <c r="B6" s="16">
         <f>$B5+1</f>
         <v>2</v>
       </c>
-      <c r="C6" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
+      <c r="C6" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" s="16"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="12"/>
@@ -5186,132 +4548,133 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{813FDB8B-E1BD-4848-B277-E641612F6072}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.5" style="49" customWidth="1"/>
-    <col min="2" max="2" width="155.375" style="49" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="49"/>
+    <col min="1" max="1" width="4.5" style="47" customWidth="1"/>
+    <col min="2" max="2" width="155.375" style="47" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="47"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="50" t="s">
-        <v>159</v>
+      <c r="A1" s="48" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" s="49" t="s">
-        <v>160</v>
+      <c r="A3" s="47" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B4" s="51" t="s">
-        <v>161</v>
+      <c r="B4" s="49" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B5" s="49" t="s">
-        <v>162</v>
+      <c r="B5" s="47" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B7" s="49" t="s">
-        <v>163</v>
+      <c r="B7" s="47" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B8" s="49" t="s">
-        <v>164</v>
+      <c r="B8" s="47" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B9" s="52" t="s">
-        <v>184</v>
+      <c r="B9" s="50" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B10" s="49" t="s">
-        <v>165</v>
+      <c r="B10" s="47" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A12" s="49" t="s">
-        <v>166</v>
+      <c r="A12" s="47" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B13" s="49" t="s">
-        <v>167</v>
+      <c r="B13" s="47" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B14" s="53" t="s">
-        <v>168</v>
+      <c r="B14" s="51" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B15" s="49" t="s">
-        <v>169</v>
+      <c r="B15" s="47" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B16" s="52" t="s">
-        <v>185</v>
+      <c r="B16" s="50" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B18" s="49" t="s">
-        <v>170</v>
+      <c r="B18" s="47" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B19" s="49" t="s">
-        <v>171</v>
+      <c r="B19" s="47" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A21" s="49" t="s">
-        <v>172</v>
+      <c r="A21" s="47" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B22" s="49" t="s">
-        <v>173</v>
+      <c r="B22" s="47" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B24" s="54" t="s">
-        <v>174</v>
+      <c r="B24" s="52" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B25" s="55" t="s">
-        <v>175</v>
+      <c r="B25" s="53" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B26" s="55" t="s">
-        <v>176</v>
+      <c r="B26" s="53" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B27" s="56" t="s">
-        <v>177</v>
+      <c r="B27" s="54" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B29" s="49" t="s">
-        <v>178</v>
+      <c r="B29" s="47" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B30" s="49" t="s">
-        <v>179</v>
+      <c r="B30" s="47" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -5321,298 +4684,6 @@
     <hyperlink ref="B9" r:id="rId2" location="database-dialect" xr:uid="{26BBF3D9-4423-416A-BBDC-71CE97ED06F5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101004FB777E25BEAEA41AA8B3499B0554451" ma:contentTypeVersion="14" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="cab236ad035079879286742c28a2fb3a">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1d008ebc-df4f-45f1-825a-8a8202e958a5" xmlns:ns3="86b2f916-4c25-4caf-b602-cb3f88f7f404" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="57e248e240f15292beae7630b1ab64c6" ns2:_="" ns3:_="">
-    <xsd:import namespace="1d008ebc-df4f-45f1-825a-8a8202e958a5"/>
-    <xsd:import namespace="86b2f916-4c25-4caf-b602-cb3f88f7f404"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="1d008ebc-df4f-45f1-825a-8a8202e958a5" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="12" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="13" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="17" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="画像タグ" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="e33717ea-bcde-468e-bdb9-e6e0ac669728" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="19" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="20" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceSearchProperties" ma:index="21" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="86b2f916-4c25-4caf-b602-cb3f88f7f404" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="10" nillable="true" ma:displayName="共有相手" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="11" nillable="true" ma:displayName="共有相手の詳細情報" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="TaxCatchAll" ma:index="18" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{4139ddf4-debf-4f09-adfc-94c74b9ded59}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="86b2f916-4c25-4caf-b602-cb3f88f7f404">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="コンテンツ タイプ"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="タイトル"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="86b2f916-4c25-4caf-b602-cb3f88f7f404" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1d008ebc-df4f-45f1-825a-8a8202e958a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FF9CC0D-EF13-4E87-8EE3-26008FE7B892}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8DA5114C-400E-4C69-98D3-3B098D87A9CE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="1d008ebc-df4f-45f1-825a-8a8202e958a5"/>
-    <ds:schemaRef ds:uri="86b2f916-4c25-4caf-b602-cb3f88f7f404"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C264D710-DF10-4E11-B6C6-AA51ACFB41F0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="86b2f916-4c25-4caf-b602-cb3f88f7f404"/>
-    <ds:schemaRef ds:uri="1d008ebc-df4f-45f1-825a-8a8202e958a5"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>